--- a/src/data/Client.xlsx
+++ b/src/data/Client.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KPI\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42680E0B-5BD1-4CD3-8707-F393DF63BC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54AA7F-BDBC-428B-BFBD-3F2046DA7FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
+    <sheet name="CifreAnuale" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>Miraflos SA</t>
+  </si>
+  <si>
+    <t>ValoareVinduta</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Halbag SRL</t>
+  </si>
+  <si>
+    <t>Primus SA</t>
   </si>
 </sst>
 </file>
@@ -360,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -386,6 +402,160 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A2FB7B-8B9E-4A7E-843D-842B37EAF544}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2">
+        <v>209</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3">
+        <v>314</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5">
+        <v>4323</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7">
+        <v>270</v>
+      </c>
+      <c r="D7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
